--- a/templates/report-template.xlsx
+++ b/templates/report-template.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="24">
   <si>
     <t>Teacher</t>
   </si>
@@ -86,6 +86,9 @@
     <t>Authors</t>
   </si>
   <si>
+    <t>Url</t>
+  </si>
+  <si>
     <t>Order number</t>
   </si>
 </sst>
@@ -93,7 +96,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -108,16 +111,13 @@
     <font>
       <b/>
       <sz val="11.0"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <color theme="1"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -128,36 +128,30 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border/>
-    <border>
-      <right/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -415,7 +409,6 @@
     <col customWidth="1" min="9" max="9" width="14.29"/>
     <col customWidth="1" min="10" max="10" width="16.0"/>
     <col customWidth="1" min="11" max="11" width="17.71"/>
-    <col customWidth="1" min="12" max="26" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="31.5" customHeight="1">
@@ -1468,7 +1461,6 @@
     <col customWidth="1" min="9" max="9" width="14.29"/>
     <col customWidth="1" min="10" max="10" width="16.0"/>
     <col customWidth="1" min="11" max="11" width="17.71"/>
-    <col customWidth="1" min="12" max="26" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="31.5" customHeight="1">
@@ -1479,7 +1471,7 @@
       <c r="K1" s="1"/>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -2517,7 +2509,6 @@
     <col customWidth="1" min="9" max="9" width="14.29"/>
     <col customWidth="1" min="10" max="10" width="16.0"/>
     <col customWidth="1" min="11" max="11" width="17.71"/>
-    <col customWidth="1" min="12" max="26" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="31.5" customHeight="1">
@@ -2530,19 +2521,19 @@
       <c r="K1" s="1"/>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="2"/>
@@ -3561,11 +3552,10 @@
     <col customWidth="1" min="6" max="6" width="26.0"/>
     <col customWidth="1" min="7" max="7" width="8.71"/>
     <col customWidth="1" min="8" max="8" width="44.0"/>
-    <col customWidth="1" min="9" max="26" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="31.5" customHeight="1">
-      <c r="A1" s="4"/>
+      <c r="A1" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
@@ -4598,23 +4588,23 @@
     <col customWidth="1" min="2" max="2" width="11.71"/>
     <col customWidth="1" min="3" max="3" width="22.71"/>
     <col customWidth="1" min="4" max="4" width="34.57"/>
-    <col customWidth="1" min="5" max="26" width="8.71"/>
+    <col customWidth="1" min="5" max="6" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="30.75" customHeight="1">
-      <c r="A1" s="5"/>
+      <c r="A1" s="3"/>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5622,13 +5612,13 @@
     <col customWidth="1" min="1" max="1" width="34.57"/>
     <col customWidth="1" min="2" max="2" width="10.0"/>
     <col customWidth="1" min="3" max="3" width="26.57"/>
-    <col customWidth="1" min="4" max="4" width="42.57"/>
-    <col customWidth="1" min="5" max="5" width="43.43"/>
-    <col customWidth="1" min="6" max="26" width="8.71"/>
+    <col customWidth="1" min="4" max="5" width="42.57"/>
+    <col customWidth="1" min="6" max="6" width="43.43"/>
+    <col customWidth="1" min="7" max="7" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="32.25" customHeight="1">
-      <c r="A1" s="5"/>
+      <c r="A1" s="3"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
@@ -5643,7 +5633,10 @@
       <c r="D3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6629,7 +6622,7 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -6653,11 +6646,11 @@
     <col customWidth="1" min="3" max="3" width="12.0"/>
     <col customWidth="1" min="4" max="4" width="20.57"/>
     <col customWidth="1" min="5" max="5" width="34.43"/>
-    <col customWidth="1" min="6" max="26" width="8.71"/>
+    <col customWidth="1" min="6" max="6" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="30.75" customHeight="1">
-      <c r="A1" s="5"/>
+      <c r="A1" s="3"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
@@ -6670,9 +6663,9 @@
         <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7682,11 +7675,11 @@
     <col customWidth="1" min="3" max="3" width="8.71"/>
     <col customWidth="1" min="4" max="4" width="21.29"/>
     <col customWidth="1" min="5" max="5" width="35.0"/>
-    <col customWidth="1" min="6" max="26" width="8.71"/>
+    <col customWidth="1" min="6" max="6" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="30.0" customHeight="1">
-      <c r="A1" s="5"/>
+      <c r="A1" s="3"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
@@ -7699,9 +7692,9 @@
         <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>17</v>
       </c>
     </row>
